--- a/Status Sites.xlsx
+++ b/Status Sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vantece-my.sharepoint.com/personal/gabriela_vantece_onmicrosoft_com/Documents/03. SAR/00. SITES WINITY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B300B4E5-EE24-469E-BA92-ED8CE2F1F351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{B300B4E5-EE24-469E-BA92-ED8CE2F1F351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{063D9DA3-937E-4C63-9095-D743FC7B904F}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{41F71C29-7548-4C48-A266-250F0F1B4D75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{41F71C29-7548-4C48-A266-250F0F1B4D75}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="4" r:id="rId1"/>
@@ -69,12 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">Acionamento Fornecedor </t>
-  </si>
-  <si>
-    <t>Latitude Candidato</t>
-  </si>
-  <si>
-    <t>Longitude Candidato</t>
   </si>
   <si>
     <t>Dist PN</t>
@@ -234,6 +228,12 @@
   </si>
   <si>
     <t>Nepocuno</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
 </sst>
 </file>
@@ -12181,7 +12181,7 @@
     <xf numFmtId="0" fontId="40" fillId="43" borderId="135" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -12205,10 +12205,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="247" fontId="0" fillId="0" borderId="54" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5966">
     <cellStyle name=" 1" xfId="52" xr:uid="{A37F5DBA-79E5-451E-856C-1826F9A5627B}"/>
@@ -18201,10 +18197,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -18569,19 +18561,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D120853C-E14E-41E9-BE46-78FD4AB1C6E9}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="12" width="11.25" style="1" customWidth="1"/>
+    <col min="1" max="12" width="11.28515625" style="1" customWidth="1"/>
     <col min="13" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="35" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" customWidth="1"/>
+    <col min="24" max="24" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="26" max="35" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15">
@@ -18592,19 +18585,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
@@ -18628,105 +18621,105 @@
         <v>9</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="Q1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="Z1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AH1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="M2" s="7">
         <v>-25.500734999999999</v>
@@ -18746,13 +18739,13 @@
       </c>
       <c r="S2" s="8"/>
       <c r="T2" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W2" s="10">
         <v>45658</v>
@@ -18796,40 +18789,40 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="L3" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M3" s="7">
         <v>-25.7134</v>
@@ -18849,13 +18842,13 @@
       </c>
       <c r="S3" s="8"/>
       <c r="T3" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W3" s="10">
         <v>45659</v>
@@ -18879,40 +18872,40 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="L4" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M4" s="7">
         <v>-25.7134</v>
@@ -18932,13 +18925,13 @@
       </c>
       <c r="S4" s="8"/>
       <c r="T4" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W4" s="10">
         <v>45659</v>
@@ -18966,40 +18959,40 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="K5" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M5" s="7">
         <v>-25.7134</v>
@@ -19019,13 +19012,13 @@
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W5" s="10">
         <v>45659</v>
@@ -19076,40 +19069,40 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M6">
         <v>-20.647389</v>
@@ -19117,7 +19110,7 @@
       <c r="N6">
         <v>-42.245562</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="1">
         <v>50</v>
       </c>
       <c r="Q6">
@@ -19126,14 +19119,14 @@
       <c r="R6">
         <v>-42.246237000000001</v>
       </c>
-      <c r="T6" s="14" t="s">
-        <v>23</v>
+      <c r="T6" t="s">
+        <v>21</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W6" s="2">
         <v>45726</v>
@@ -19154,6 +19147,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="24710e9f-3c6c-4134-b0e2-99fd374a610d" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="9e0596f1-a844-45d8-9d2c-19cdd81252ae" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9e0596f1-a844-45d8-9d2c-19cdd81252ae">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100478B83CB5524C64B99255A2FE74A97D1" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36c4effad57decae4637db986e317ca2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9e0596f1-a844-45d8-9d2c-19cdd81252ae" xmlns:ns3="24710e9f-3c6c-4134-b0e2-99fd374a610d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c5275d1de300097d93f07aa5e441bfc" ns2:_="" ns3:_="">
     <xsd:import namespace="9e0596f1-a844-45d8-9d2c-19cdd81252ae"/>
@@ -19414,28 +19428,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CF06951-B200-4E9F-B77F-F1B8DAD4122C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="24710e9f-3c6c-4134-b0e2-99fd374a610d"/>
+    <ds:schemaRef ds:uri="9e0596f1-a844-45d8-9d2c-19cdd81252ae"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="24710e9f-3c6c-4134-b0e2-99fd374a610d" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="9e0596f1-a844-45d8-9d2c-19cdd81252ae" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9e0596f1-a844-45d8-9d2c-19cdd81252ae">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{785FC277-FDE7-4680-B062-BDA134482B22}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{072E7542-41E1-43A4-B09D-B1E39A4642AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19452,23 +19464,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{785FC277-FDE7-4680-B062-BDA134482B22}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CF06951-B200-4E9F-B77F-F1B8DAD4122C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="24710e9f-3c6c-4134-b0e2-99fd374a610d"/>
-    <ds:schemaRef ds:uri="9e0596f1-a844-45d8-9d2c-19cdd81252ae"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>